--- a/biology/Zoologie/Elasmucha_fieberi/Elasmucha_fieberi.xlsx
+++ b/biology/Zoologie/Elasmucha_fieberi/Elasmucha_fieberi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elasmucha fieberi est une espèce d'insectes du sous-ordre des hétéroptères (punaises) de la famille des Acanthosomatidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a une répartition eurosibérienne, présente jusqu'en Corée et au Japon. En Europe, elle est absente des îles britanniques[1].
-E. fieberi apprécie les zones forestières. On la trouve principalement sur le bouleau[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a une répartition eurosibérienne, présente jusqu'en Corée et au Japon. En Europe, elle est absente des îles britanniques.
+E. fieberi apprécie les zones forestières. On la trouve principalement sur le bouleau.
 </t>
         </is>
       </c>
@@ -543,11 +557,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Elasmucha fieberi a été décrit pour la première fois par l'entomologiste russe Vasily Evgrafovich Jakovlev (d) en 1864, sous le protonyme de Elasmosthetus fieberi.
-Publication originale
-(ru) V.E. Jakovlev, « Hemiptera of the Volga region fauna », Uchenye Zapiski Kazanskogo Universiteta, Otdelenie Fiziko-Matematicheskikh i Meditsinskikh Nauk, vol. 1,‎ 1864, p. 109-129.</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elasmucha fieberi a été décrit pour la première fois par l'entomologiste russe Vasily Evgrafovich Jakovlev (d) en 1864, sous le protonyme de Elasmosthetus fieberi.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Elasmucha_fieberi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elasmucha_fieberi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(ru) V.E. Jakovlev, « Hemiptera of the Volga region fauna », Uchenye Zapiski Kazanskogo Universiteta, Otdelenie Fiziko-Matematicheskikh i Meditsinskikh Nauk, vol. 1,‎ 1864, p. 109-129.</t>
         </is>
       </c>
     </row>
